--- a/ref/ingestion/demo/model_input_variables_ip_demo.xlsx
+++ b/ref/ingestion/demo/model_input_variables_ip_demo.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/sisepuede/ref/ingestion/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD54DB81-1F0D-704F-909E-C7D9B2B4EEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B30A7-0831-8F44-8B5E-EB0D71ECF65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="500" windowWidth="22160" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
-    <sheet name="strategy_id-1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="239">
   <si>
     <t>subsector</t>
   </si>
@@ -63,6 +50,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>2</t>
@@ -167,34 +157,13 @@
     <t>35</t>
   </si>
   <si>
-    <t>ef_ippu_tonne_ch4_per_tonne_production_chemicals</t>
+    <t>IPPU</t>
   </si>
   <si>
-    <t>ef_ippu_tonne_ch4_per_tonne_production_metals</t>
+    <t>dem_ippu_average_materials_tonne_per_household_cement</t>
   </si>
   <si>
-    <t>ef_ippu_tonne_co2_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_co2_per_tonne_production_glass</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_co2_per_tonne_production_lime_and_carbonite</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_co2_per_tonne_production_metals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_sf6_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_n2o_per_mmm_gdp_other_product_manufacturing</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_n2o_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_sf6_per_mmm_gdp_other_product_manufacturing</t>
+    <t>dem_ippu_average_materials_tonne_per_household_wood</t>
   </si>
   <si>
     <t>demscalar_ippu_cement</t>
@@ -218,6 +187,9 @@
     <t>demscalar_ippu_metals</t>
   </si>
   <si>
+    <t>demscalar_ippu_mining</t>
+  </si>
+  <si>
     <t>demscalar_ippu_other_industries</t>
   </si>
   <si>
@@ -228,6 +200,21 @@
   </si>
   <si>
     <t>demscalar_ippu_plastic</t>
+  </si>
+  <si>
+    <t>demscalar_ippu_product_use_lubricants</t>
+  </si>
+  <si>
+    <t>demscalar_ippu_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>demscalar_ippu_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>demscalar_ippu_product_use_other</t>
+  </si>
+  <si>
+    <t>demscalar_ippu_product_use_paraffin_wax</t>
   </si>
   <si>
     <t>demscalar_ippu_recycled_glass</t>
@@ -248,13 +235,394 @@
     <t>demscalar_ippu_recycled_textiles</t>
   </si>
   <si>
+    <t>demscalar_ippu_recycled_wood</t>
+  </si>
+  <si>
     <t>demscalar_ippu_rubber_and_leather</t>
   </si>
   <si>
     <t>demscalar_ippu_textiles</t>
   </si>
   <si>
-    <t>IPPU</t>
+    <t>demscalar_ippu_wood</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2f6_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2f6_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2f6_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2f6_per_tonne_production_metals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2h3f3_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2h3f3_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2hf5_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2hf5_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c2hf5_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3f8_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3f8_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3h2f6_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3h2f6_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3h3f5_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3h3f5_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3hf7_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3hf7_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c3hf7_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c4f10_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c4f10_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c4f6_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c4f8o_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c4h5f5_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c4h5f5_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c5f12_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c5f8_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c5h2f10_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c6f14_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_c6f14_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_cc4f8_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_cc4f8_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_cf4_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_cf4_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_cf4_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_cf4_per_tonne_production_metals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch2f2_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch2f2_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch2f2_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch2fchf2_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch3cci2f_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch3ccif2_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch3chf2_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch3chf2_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch3chf2_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch3f_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch4_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch4_per_tonne_production_metals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_ch4_per_tonne_production_plastic</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf2cf3_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf2cf3_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf2cf3_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf2chf2_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf3_per_mmm_gdp_product_use_ods_other</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf3_per_mmm_gdp_product_use_ods_refrigeration</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf3_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_chf3_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_product_use_product_use_lubricants</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_product_use_product_use_paraffin_wax</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_production_cement_clinker</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_production_glass</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_production_lime_and_carbonite</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_production_metals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_co2_per_tonne_production_plastic</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_n2o_per_mmm_gdp_other_product_manufacturing</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_n2o_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_n2o_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_nf3_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_nf3_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_sf6_per_mmm_gdp_other_product_manufacturing</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_sf6_per_tonne_production_chemicals</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_sf6_per_tonne_production_electronics</t>
+  </si>
+  <si>
+    <t>ef_ippu_tonne_sf6_per_tonne_production_metals</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_cement_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_chemicals_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_electronics_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_glass_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_lime_and_carbonite_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_metals_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_mining_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_paper_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_plastic_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_product_use_lubricants_product_use_rate_to_gdppc</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_product_use_ods_other_product_use_rate_to_gdppc</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_product_use_ods_refrigeration_product_use_rate_to_gdppc</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_product_use_paraffin_wax_product_use_rate_to_gdppc</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_rubber_and_leather_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_textiles_production_to_gdp</t>
+  </si>
+  <si>
+    <t>elasticity_ippu_wood_production_to_gdp</t>
+  </si>
+  <si>
+    <t>emitinit_ippu_product_use_other_kt_co2</t>
+  </si>
+  <si>
+    <t>frac_ippu_cement_clinker</t>
+  </si>
+  <si>
+    <t>frac_ippu_production_with_co2_capture_cement</t>
+  </si>
+  <si>
+    <t>frac_ippu_production_with_co2_capture_chemicals</t>
+  </si>
+  <si>
+    <t>frac_ippu_production_with_co2_capture_glass</t>
+  </si>
+  <si>
+    <t>frac_ippu_production_with_co2_capture_lime_and_carbonite</t>
+  </si>
+  <si>
+    <t>frac_ippu_production_with_co2_capture_metals</t>
+  </si>
+  <si>
+    <t>frac_ippu_production_with_co2_capture_plastic</t>
+  </si>
+  <si>
+    <t>gasrf_ippu_co2_capture_cement</t>
+  </si>
+  <si>
+    <t>gasrf_ippu_co2_capture_chemicals</t>
+  </si>
+  <si>
+    <t>gasrf_ippu_co2_capture_glass</t>
+  </si>
+  <si>
+    <t>gasrf_ippu_co2_capture_lime_and_carbonite</t>
+  </si>
+  <si>
+    <t>gasrf_ippu_co2_capture_metals</t>
+  </si>
+  <si>
+    <t>gasrf_ippu_co2_capture_plastic</t>
+  </si>
+  <si>
+    <t>maxfrac_ippu_maximum_recylced_material_ratio_glass</t>
+  </si>
+  <si>
+    <t>maxfrac_ippu_maximum_recylced_material_ratio_paper</t>
+  </si>
+  <si>
+    <t>maxfrac_ippu_maximum_recylced_material_ratio_plastic</t>
+  </si>
+  <si>
+    <t>maxfrac_ippu_maximum_recylced_material_ratio_wood</t>
+  </si>
+  <si>
+    <t>net_imports_cement_clinker_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_cement_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_chemicals_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_electronics_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_glass_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_lime_and_carbonite_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_metals_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_mining_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_paper_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_plastic_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_recycled_glass_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_recycled_metals_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_recycled_paper_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_recycled_plastic_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_recycled_rubber_and_leather_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_recycled_textiles_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_rubber_and_leather_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_textiles_tonne</t>
+  </si>
+  <si>
+    <t>prodinit_ippu_wood_tonne</t>
   </si>
   <si>
     <t>qty_ippu_cement_tonne_cod_per_m3_ww</t>
@@ -302,6 +670,24 @@
     <t>qty_ippu_textiles_tonne_cod_per_m3_ww</t>
   </si>
   <si>
+    <t>qty_ippu_wood_tonne_cod_per_m3_ww</t>
+  </si>
+  <si>
+    <t>ratio_ippu_production_to_harvested_wood_demand_paper</t>
+  </si>
+  <si>
+    <t>ratio_ippu_production_to_harvested_wood_demand_wood</t>
+  </si>
+  <si>
+    <t>timespan_ippu_average_lifetime_of_housing</t>
+  </si>
+  <si>
+    <t>useinit_ippu_product_use_lubricants_kt</t>
+  </si>
+  <si>
+    <t>useinit_ippu_product_use_paraffin_wax_kt</t>
+  </si>
+  <si>
     <t>vol_ippu_cement_m3_ww_per_tonne_production</t>
   </si>
   <si>
@@ -326,6 +712,9 @@
     <t>vol_ippu_plastic_m3_ww_per_tonne_production</t>
   </si>
   <si>
+    <t>vol_ippu_recycled_glass_m3_ww_per_tonne_production</t>
+  </si>
+  <si>
     <t>vol_ippu_recycled_metals_m3_ww_per_tonne_production</t>
   </si>
   <si>
@@ -347,416 +736,14 @@
     <t>vol_ippu_textiles_m3_ww_per_tonne_production</t>
   </si>
   <si>
-    <t>prodinit_ippu_cement_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_chemicals_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_electronics_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_glass_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_lime_and_carbonite_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_metals_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_paper_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_plastic_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_recycled_glass_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_recycled_metals_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_recycled_paper_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_recycled_plastic_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_recycled_rubber_and_leather_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_recycled_textiles_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_rubber_and_leather_tonne</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_textiles_tonne</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>demscalar_ippu_recycled_wood</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_ch4_per_tonne_production_plastic</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_co2_per_tonne_production_plastic</t>
-  </si>
-  <si>
-    <t>net_imports_cement_clinker_tonne</t>
-  </si>
-  <si>
-    <t>frac_ippu_cement_clinker</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_co2_per_tonne_production_cement_clinker</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_cement_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_chemicals_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_electronics_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_glass_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_lime_and_carbonite_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_metals_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_paper_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_plastic_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_rubber_and_leather_production_to_gdp</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_textiles_production_to_gdp</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_chf3_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_chf3_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_cf4_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c2f6_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c3f8_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c4f6_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_cc4f8_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c4f8o_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c5f8_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_ch2f2_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_nf3_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_n2o_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>demscalar_ippu_product_use_lubricants</t>
-  </si>
-  <si>
-    <t>demscalar_ippu_product_use_other</t>
-  </si>
-  <si>
-    <t>demscalar_ippu_product_use_paraffin_wax</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_co2_per_tonne_product_use_product_use_lubricants</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_co2_per_tonne_product_use_product_use_paraffin_wax</t>
-  </si>
-  <si>
-    <t>emitinit_ippu_product_use_other_kt_co2</t>
-  </si>
-  <si>
-    <t>useinit_ippu_product_use_lubricants_kt</t>
-  </si>
-  <si>
-    <t>useinit_ippu_product_use_paraffin_wax_kt</t>
-  </si>
-  <si>
-    <t>vol_ippu_recycled_glass_m3_ww_per_tonne_production</t>
-  </si>
-  <si>
-    <t>demscalar_ippu_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>demscalar_ippu_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_product_use_lubricants_product_use_rate_to_gdppc</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_product_use_paraffin_wax_product_use_rate_to_gdppc</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_product_use_ods_refrigeration_product_use_rate_to_gdppc</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_product_use_ods_other_product_use_rate_to_gdppc</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c2f6_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c2h3f3_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c2hf5_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c2hf5_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c3h2f6_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c3h2f6_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c3h3f5_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c3h3f5_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c3hf7_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c3hf7_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c4f10_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c4h5f5_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c5h2f10_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c6f14_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_cf4_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_ch2f2_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_ch3chf2_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_ch3chf2_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_chf2cf3_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_chf2cf3_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_chf3_per_mmm_gdp_product_use_ods_other</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_chf3_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>maxfrac_ippu_maximum_recylced_material_ratio_glass</t>
-  </si>
-  <si>
-    <t>maxfrac_ippu_maximum_recylced_material_ratio_plastic</t>
-  </si>
-  <si>
-    <t>demscalar_ippu_wood</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_wood_production_to_gdp</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_wood_tonne</t>
-  </si>
-  <si>
-    <t>qty_ippu_wood_tonne_cod_per_m3_ww</t>
-  </si>
-  <si>
     <t>vol_ippu_wood_m3_ww_per_tonne_production</t>
-  </si>
-  <si>
-    <t>maxfrac_ippu_maximum_recylced_material_ratio_paper</t>
-  </si>
-  <si>
-    <t>maxfrac_ippu_maximum_recylced_material_ratio_wood</t>
-  </si>
-  <si>
-    <t>ratio_ippu_production_to_harvested_wood_demand_paper</t>
-  </si>
-  <si>
-    <t>ratio_ippu_production_to_harvested_wood_demand_wood</t>
-  </si>
-  <si>
-    <t>dem_ippu_average_materials_tonne_per_household_cement</t>
-  </si>
-  <si>
-    <t>dem_ippu_average_materials_tonne_per_household_wood</t>
-  </si>
-  <si>
-    <t>timespan_ippu_average_lifetime_of_housing</t>
-  </si>
-  <si>
-    <t>elasticity_ippu_mining_production_to_gdp</t>
-  </si>
-  <si>
-    <t>demscalar_ippu_mining</t>
-  </si>
-  <si>
-    <t>prodinit_ippu_mining_tonne</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_sf6_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_sf6_per_tonne_production_metals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c2f6_per_tonne_production_metals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_nf3_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c5f12_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_ch3cci2f_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_ch3ccif2_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c2hf5_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_chf2chf2_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_chf2cf3_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_ch2fchf2_per_mmm_gdp_product_use_ods_refrigeration</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_ch3chf2_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c3hf7_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_ch2f2_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_ch3f_per_tonne_production_electronics</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c2f6_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_cf4_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_cf4_per_tonne_production_metals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c3f8_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c4f10_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c6f14_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_cc4f8_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c2h3f3_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>ef_ippu_tonne_c4h5f5_per_tonne_production_chemicals</t>
-  </si>
-  <si>
-    <t>gasrf_ippu_co2_capture_cement</t>
-  </si>
-  <si>
-    <t>gasrf_ippu_co2_capture_chemicals</t>
-  </si>
-  <si>
-    <t>gasrf_ippu_co2_capture_glass</t>
-  </si>
-  <si>
-    <t>gasrf_ippu_co2_capture_lime_and_carbonite</t>
-  </si>
-  <si>
-    <t>gasrf_ippu_co2_capture_metals</t>
-  </si>
-  <si>
-    <t>gasrf_ippu_co2_capture_plastic</t>
-  </si>
-  <si>
-    <t>frac_ippu_production_with_co2_capture_cement</t>
-  </si>
-  <si>
-    <t>frac_ippu_production_with_co2_capture_chemicals</t>
-  </si>
-  <si>
-    <t>frac_ippu_production_with_co2_capture_glass</t>
-  </si>
-  <si>
-    <t>frac_ippu_production_with_co2_capture_lime_and_carbonite</t>
-  </si>
-  <si>
-    <t>frac_ippu_production_with_co2_capture_metals</t>
-  </si>
-  <si>
-    <t>frac_ippu_production_with_co2_capture_plastic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,30 +754,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -820,13 +793,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,9 +816,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -885,7 +856,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -919,7 +890,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -954,10 +924,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1133,14 +1102,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="M130" sqref="M130"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="N167" sqref="N167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1174,117 +1140,117 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1403,10 +1369,10 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1525,16 +1491,16 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1647,16 +1613,16 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1769,16 +1735,16 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1891,16 +1857,16 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2013,16 +1979,16 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -2135,16 +2101,16 @@
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2257,16 +2223,16 @@
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2378,17 +2344,17 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>201</v>
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2501,16 +2467,16 @@
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2623,16 +2589,16 @@
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2745,16 +2711,16 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2867,16 +2833,16 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2989,16 +2955,16 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -3111,16 +3077,16 @@
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -3233,16 +3199,16 @@
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -3355,16 +3321,16 @@
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -3477,16 +3443,16 @@
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -3599,16 +3565,16 @@
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -3721,16 +3687,16 @@
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3843,16 +3809,16 @@
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3965,16 +3931,16 @@
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -4087,16 +4053,16 @@
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -4209,16 +4175,16 @@
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -4331,16 +4297,16 @@
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -4453,16 +4419,16 @@
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -4575,16 +4541,16 @@
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
       <c r="H29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -4697,16 +4663,16 @@
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -4819,16 +4785,16 @@
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="H31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -4941,10 +4907,10 @@
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -5063,260 +5029,260 @@
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1.5</v>
-      </c>
-      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="U33" s="2">
+      <c r="U33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="V33" s="2">
+      <c r="V33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="W33" s="2">
+      <c r="W33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="X33" s="2">
+      <c r="X33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="Y33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="Z33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AA33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AB33" s="2">
+      <c r="AB33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AC33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AE33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AF33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AG33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AH33" s="2">
+      <c r="AH33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AI33" s="2">
+      <c r="AI33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AJ33" s="2">
+      <c r="AJ33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AK33" s="2">
+      <c r="AK33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AL33" s="2">
+      <c r="AL33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AM33" s="2">
+      <c r="AM33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AN33" s="2">
+      <c r="AN33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AO33" s="2">
+      <c r="AO33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AP33" s="2">
+      <c r="AP33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AQ33" s="2">
+      <c r="AQ33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AR33" s="2">
+      <c r="AR33">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AS33" s="2">
+      <c r="AS33">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="H34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1.2</v>
-      </c>
-      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="X34" s="2">
+      <c r="X34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Y34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="Z34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AA34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AB34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AC34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AE34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AF34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AG34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AH34" s="2">
+      <c r="AH34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AI34" s="2">
+      <c r="AI34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AJ34" s="2">
+      <c r="AJ34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AK34" s="2">
+      <c r="AK34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AL34" s="2">
+      <c r="AL34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AM34" s="2">
+      <c r="AM34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AN34" s="2">
+      <c r="AN34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AO34" s="2">
+      <c r="AO34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AP34" s="2">
+      <c r="AP34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AQ34" s="2">
+      <c r="AQ34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AR34" s="2">
+      <c r="AR34">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AS34" s="2">
+      <c r="AS34">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="H35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -5429,10 +5395,10 @@
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -5551,16 +5517,16 @@
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="H37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -5673,16 +5639,16 @@
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="H38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -5795,10 +5761,10 @@
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -5917,10 +5883,10 @@
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -6039,138 +6005,138 @@
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1.5</v>
-      </c>
-      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="X41" s="2">
+      <c r="X41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="Y41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="Z41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AA41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AB41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AC41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AE41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AF41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AG41" s="2">
+      <c r="AG41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AH41" s="2">
+      <c r="AH41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AI41" s="2">
+      <c r="AI41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AJ41" s="2">
+      <c r="AJ41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AK41" s="2">
+      <c r="AK41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AL41" s="2">
+      <c r="AL41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AM41" s="2">
+      <c r="AM41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AN41" s="2">
+      <c r="AN41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AO41" s="2">
+      <c r="AO41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AP41" s="2">
+      <c r="AP41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AQ41" s="2">
+      <c r="AQ41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AR41" s="2">
+      <c r="AR41">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AS41" s="2">
+      <c r="AS41">
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="H42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -6283,16 +6249,16 @@
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="H43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -6405,16 +6371,16 @@
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="H44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -6527,16 +6493,16 @@
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="H45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -6649,16 +6615,16 @@
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="H46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -6771,16 +6737,16 @@
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="H47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -6893,10 +6859,10 @@
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -7015,16 +6981,16 @@
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="H49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -7137,10 +7103,10 @@
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -7259,260 +7225,260 @@
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="H51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1.5</v>
-      </c>
-      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="T51" s="2">
+      <c r="T51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="U51" s="2">
+      <c r="U51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="V51" s="2">
+      <c r="V51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="W51" s="2">
+      <c r="W51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="X51" s="2">
+      <c r="X51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="Y51" s="2">
+      <c r="Y51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="Z51" s="2">
+      <c r="Z51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AA51" s="2">
+      <c r="AA51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AB51" s="2">
+      <c r="AB51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AC51" s="2">
+      <c r="AC51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AE51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AF51" s="2">
+      <c r="AF51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AG51" s="2">
+      <c r="AG51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AH51" s="2">
+      <c r="AH51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AI51" s="2">
+      <c r="AI51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AJ51" s="2">
+      <c r="AJ51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AK51" s="2">
+      <c r="AK51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AL51" s="2">
+      <c r="AL51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AM51" s="2">
+      <c r="AM51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AN51" s="2">
+      <c r="AN51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AO51" s="2">
+      <c r="AO51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AP51" s="2">
+      <c r="AP51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AQ51" s="2">
+      <c r="AQ51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AR51" s="2">
+      <c r="AR51">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AS51" s="2">
+      <c r="AS51">
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="H52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1.5</v>
-      </c>
-      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="R52" s="2">
+      <c r="R52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="T52" s="2">
+      <c r="T52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="U52" s="2">
+      <c r="U52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="V52" s="2">
+      <c r="V52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="W52" s="2">
+      <c r="W52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="X52" s="2">
+      <c r="X52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="Y52" s="2">
+      <c r="Y52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="Z52" s="2">
+      <c r="Z52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AA52" s="2">
+      <c r="AA52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AB52" s="2">
+      <c r="AB52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AC52" s="2">
+      <c r="AC52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AE52" s="2">
+      <c r="AE52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AF52" s="2">
+      <c r="AF52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AG52" s="2">
+      <c r="AG52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AH52" s="2">
+      <c r="AH52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AI52" s="2">
+      <c r="AI52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AJ52" s="2">
+      <c r="AJ52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AK52" s="2">
+      <c r="AK52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AL52" s="2">
+      <c r="AL52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AM52" s="2">
+      <c r="AM52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AN52" s="2">
+      <c r="AN52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AO52" s="2">
+      <c r="AO52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AP52" s="2">
+      <c r="AP52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AQ52" s="2">
+      <c r="AQ52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AR52" s="2">
+      <c r="AR52">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="AS52" s="2">
+      <c r="AS52">
         <v>4.0000000000000001E-8</v>
       </c>
     </row>
     <row r="53" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="H53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -7625,10 +7591,10 @@
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -7747,10 +7713,10 @@
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -7869,138 +7835,138 @@
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="H56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>1.5</v>
-      </c>
-      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="P56" s="2">
+      <c r="P56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="Q56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="R56" s="2">
+      <c r="R56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="S56" s="2">
+      <c r="S56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="T56" s="2">
+      <c r="T56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="U56" s="2">
+      <c r="U56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="V56" s="2">
+      <c r="V56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="W56" s="2">
+      <c r="W56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="X56" s="2">
+      <c r="X56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="Y56" s="2">
+      <c r="Y56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="Z56" s="2">
+      <c r="Z56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AA56" s="2">
+      <c r="AA56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AB56" s="2">
+      <c r="AB56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AC56" s="2">
+      <c r="AC56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AD56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AE56" s="2">
+      <c r="AE56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AF56" s="2">
+      <c r="AF56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AG56" s="2">
+      <c r="AG56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AH56" s="2">
+      <c r="AH56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AI56" s="2">
+      <c r="AI56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AJ56" s="2">
+      <c r="AJ56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AK56" s="2">
+      <c r="AK56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AL56" s="2">
+      <c r="AL56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AM56" s="2">
+      <c r="AM56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AN56" s="2">
+      <c r="AN56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AO56" s="2">
+      <c r="AO56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AP56" s="2">
+      <c r="AP56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AQ56" s="2">
+      <c r="AQ56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AR56" s="2">
+      <c r="AR56">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="AS56" s="2">
+      <c r="AS56">
         <v>5.9999999999999997E-7</v>
       </c>
     </row>
     <row r="57" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="H57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -8113,16 +8079,16 @@
     </row>
     <row r="58" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="H58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -8235,10 +8201,10 @@
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -8357,10 +8323,10 @@
     </row>
     <row r="60" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -8479,138 +8445,138 @@
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="H61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>1.5</v>
-      </c>
-      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="P61" s="2">
+      <c r="P61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="Q61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="R61" s="2">
+      <c r="R61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="S61" s="2">
+      <c r="S61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="T61" s="2">
+      <c r="T61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="U61" s="2">
+      <c r="U61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="V61" s="2">
+      <c r="V61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="W61" s="2">
+      <c r="W61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="X61" s="2">
+      <c r="X61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="Y61" s="2">
+      <c r="Y61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="Z61" s="2">
+      <c r="Z61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AA61" s="2">
+      <c r="AA61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AB61" s="2">
+      <c r="AB61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AC61" s="2">
+      <c r="AC61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AD61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AE61" s="2">
+      <c r="AE61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AF61" s="2">
+      <c r="AF61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AG61" s="2">
+      <c r="AG61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AH61" s="2">
+      <c r="AH61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AI61" s="2">
+      <c r="AI61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AJ61" s="2">
+      <c r="AJ61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AK61" s="2">
+      <c r="AK61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AL61" s="2">
+      <c r="AL61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AM61" s="2">
+      <c r="AM61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AN61" s="2">
+      <c r="AN61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AO61" s="2">
+      <c r="AO61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AP61" s="2">
+      <c r="AP61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AQ61" s="2">
+      <c r="AQ61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AR61" s="2">
+      <c r="AR61">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="AS61" s="2">
+      <c r="AS61">
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="H62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -8723,10 +8689,10 @@
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -8845,16 +8811,16 @@
     </row>
     <row r="64" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="H64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>2.0000000000000001E-4</v>
@@ -8967,10 +8933,10 @@
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -9089,16 +9055,16 @@
     </row>
     <row r="66" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="H66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -9211,10 +9177,10 @@
     </row>
     <row r="67" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -9333,132 +9299,132 @@
     </row>
     <row r="68" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="H68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1.5</v>
-      </c>
-      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="O68" s="2">
+      <c r="O68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="P68" s="2">
+      <c r="P68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="Q68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="R68" s="2">
+      <c r="R68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="S68" s="2">
+      <c r="S68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="T68" s="2">
+      <c r="T68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="U68" s="2">
+      <c r="U68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="V68" s="2">
+      <c r="V68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="W68" s="2">
+      <c r="W68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="X68" s="2">
+      <c r="X68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="Y68" s="2">
+      <c r="Y68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="Z68" s="2">
+      <c r="Z68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AA68" s="2">
+      <c r="AA68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AB68" s="2">
+      <c r="AB68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AC68" s="2">
+      <c r="AC68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AD68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AE68" s="2">
+      <c r="AE68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AF68" s="2">
+      <c r="AF68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AG68" s="2">
+      <c r="AG68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AH68" s="2">
+      <c r="AH68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AI68" s="2">
+      <c r="AI68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AJ68" s="2">
+      <c r="AJ68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AK68" s="2">
+      <c r="AK68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AL68" s="2">
+      <c r="AL68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AM68" s="2">
+      <c r="AM68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AN68" s="2">
+      <c r="AN68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AO68" s="2">
+      <c r="AO68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AP68" s="2">
+      <c r="AP68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AQ68" s="2">
+      <c r="AQ68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AR68" s="2">
+      <c r="AR68">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="AS68" s="2">
+      <c r="AS68">
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="69" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -9577,10 +9543,10 @@
     </row>
     <row r="70" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -9699,10 +9665,10 @@
     </row>
     <row r="71" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -9821,16 +9787,16 @@
     </row>
     <row r="72" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="H72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -9943,16 +9909,16 @@
     </row>
     <row r="73" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="H73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -10065,10 +10031,10 @@
     </row>
     <row r="74" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -10187,10 +10153,10 @@
     </row>
     <row r="75" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -10309,16 +10275,16 @@
     </row>
     <row r="76" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="H76">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>1.16E-3</v>
@@ -10431,16 +10397,16 @@
     </row>
     <row r="77" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="H77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>1.7357142857142799E-4</v>
@@ -10553,16 +10519,16 @@
     </row>
     <row r="78" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
         <v>122</v>
       </c>
       <c r="H78">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>3.9654299999999998E-3</v>
@@ -10675,16 +10641,16 @@
     </row>
     <row r="79" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="H79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -10797,16 +10763,16 @@
     </row>
     <row r="80" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="H80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -10919,10 +10885,10 @@
     </row>
     <row r="81" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -11041,10 +11007,10 @@
     </row>
     <row r="82" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -11163,16 +11129,16 @@
     </row>
     <row r="83" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="H83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11285,16 +11251,16 @@
     </row>
     <row r="84" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="H84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -11407,16 +11373,16 @@
     </row>
     <row r="85" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>3.0000000000000001E-3</v>
@@ -11529,138 +11495,138 @@
     </row>
     <row r="86" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H86">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1.5</v>
-      </c>
-      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="L86" s="2">
+      <c r="L86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="N86" s="2">
+      <c r="N86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="O86" s="2">
+      <c r="O86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="P86" s="2">
+      <c r="P86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="Q86" s="2">
+      <c r="Q86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="R86" s="2">
+      <c r="R86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="S86" s="2">
+      <c r="S86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="T86" s="2">
+      <c r="T86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="U86" s="2">
+      <c r="U86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V86" s="2">
+      <c r="V86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="W86" s="2">
+      <c r="W86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="X86" s="2">
+      <c r="X86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="Y86" s="2">
+      <c r="Y86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="Z86" s="2">
+      <c r="Z86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AA86" s="2">
+      <c r="AA86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AB86" s="2">
+      <c r="AB86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AC86" s="2">
+      <c r="AC86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AD86" s="2">
+      <c r="AD86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AE86" s="2">
+      <c r="AE86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AF86" s="2">
+      <c r="AF86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AG86" s="2">
+      <c r="AG86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AH86" s="2">
+      <c r="AH86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AI86" s="2">
+      <c r="AI86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AJ86" s="2">
+      <c r="AJ86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AK86" s="2">
+      <c r="AK86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AL86" s="2">
+      <c r="AL86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AM86" s="2">
+      <c r="AM86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AN86" s="2">
+      <c r="AN86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AO86" s="2">
+      <c r="AO86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AP86" s="2">
+      <c r="AP86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AQ86" s="2">
+      <c r="AQ86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AR86" s="2">
+      <c r="AR86">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AS86" s="2">
+      <c r="AS86">
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
     <row r="87" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="H87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>3.15</v>
@@ -11773,16 +11739,16 @@
     </row>
     <row r="88" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>3.08</v>
@@ -11895,16 +11861,16 @@
     </row>
     <row r="89" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H89">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>0.52</v>
@@ -12017,16 +11983,16 @@
     </row>
     <row r="90" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="H90">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J90">
         <v>0.848907407407407</v>
@@ -12139,16 +12105,16 @@
     </row>
     <row r="91" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="H91">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0.2</v>
@@ -12261,16 +12227,16 @@
     </row>
     <row r="92" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="H92">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>0.75</v>
@@ -12383,16 +12349,16 @@
     </row>
     <row r="93" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="H93">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>1.8667380952380901</v>
@@ -12505,16 +12471,16 @@
     </row>
     <row r="94" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="H94">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>1.43807229</v>
@@ -12627,16 +12593,16 @@
     </row>
     <row r="95" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="H95">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -12749,16 +12715,16 @@
     </row>
     <row r="96" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="H96">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>3.7409999999999999E-2</v>
@@ -12871,16 +12837,16 @@
     </row>
     <row r="97" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H97">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <v>6.9999999999999999E-4</v>
@@ -12993,10 +12959,10 @@
     </row>
     <row r="98" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -13115,16 +13081,16 @@
     </row>
     <row r="99" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H99">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>1E-4</v>
@@ -13237,16 +13203,16 @@
     </row>
     <row r="100" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="H100">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -13359,382 +13325,382 @@
     </row>
     <row r="101" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="H101">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1.2</v>
-      </c>
-      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+      <c r="J101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="L101" s="2">
+      <c r="L101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="M101" s="2">
+      <c r="M101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="N101" s="2">
+      <c r="N101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="O101" s="2">
+      <c r="O101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="P101" s="2">
+      <c r="P101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="Q101" s="2">
+      <c r="Q101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="R101" s="2">
+      <c r="R101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="S101" s="2">
+      <c r="S101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="T101" s="2">
+      <c r="T101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="U101" s="2">
+      <c r="U101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="V101" s="2">
+      <c r="V101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="W101" s="2">
+      <c r="W101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="X101" s="2">
+      <c r="X101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="Y101" s="2">
+      <c r="Y101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="Z101" s="2">
+      <c r="Z101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AA101" s="2">
+      <c r="AA101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AB101" s="2">
+      <c r="AB101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AC101" s="2">
+      <c r="AC101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AD101" s="2">
+      <c r="AD101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AE101" s="2">
+      <c r="AE101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AF101" s="2">
+      <c r="AF101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AG101" s="2">
+      <c r="AG101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AH101" s="2">
+      <c r="AH101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AI101" s="2">
+      <c r="AI101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AJ101" s="2">
+      <c r="AJ101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AK101" s="2">
+      <c r="AK101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AL101" s="2">
+      <c r="AL101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AM101" s="2">
+      <c r="AM101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AN101" s="2">
+      <c r="AN101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AO101" s="2">
+      <c r="AO101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AP101" s="2">
+      <c r="AP101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AQ101" s="2">
+      <c r="AQ101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AR101" s="2">
+      <c r="AR101">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AS101" s="2">
+      <c r="AS101">
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="102" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="H102">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1.5</v>
-      </c>
-      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+      <c r="J102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="L102" s="2">
+      <c r="L102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="M102" s="2">
+      <c r="M102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="N102" s="2">
+      <c r="N102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="O102" s="2">
+      <c r="O102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="P102" s="2">
+      <c r="P102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="Q102" s="2">
+      <c r="Q102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="R102" s="2">
+      <c r="R102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="S102" s="2">
+      <c r="S102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="T102" s="2">
+      <c r="T102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="U102" s="2">
+      <c r="U102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="V102" s="2">
+      <c r="V102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="W102" s="2">
+      <c r="W102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="X102" s="2">
+      <c r="X102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="Y102" s="2">
+      <c r="Y102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="Z102" s="2">
+      <c r="Z102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AA102" s="2">
+      <c r="AA102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AB102" s="2">
+      <c r="AB102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AC102" s="2">
+      <c r="AC102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AD102" s="2">
+      <c r="AD102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AE102" s="2">
+      <c r="AE102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AF102" s="2">
+      <c r="AF102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AG102" s="2">
+      <c r="AG102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AH102" s="2">
+      <c r="AH102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AI102" s="2">
+      <c r="AI102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AJ102" s="2">
+      <c r="AJ102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AK102" s="2">
+      <c r="AK102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AL102" s="2">
+      <c r="AL102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AM102" s="2">
+      <c r="AM102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AN102" s="2">
+      <c r="AN102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AO102" s="2">
+      <c r="AO102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AP102" s="2">
+      <c r="AP102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AQ102" s="2">
+      <c r="AQ102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AR102" s="2">
+      <c r="AR102">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AS102" s="2">
+      <c r="AS102">
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="103" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="H103">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1.2</v>
-      </c>
-      <c r="J103" s="2">
+        <v>1</v>
+      </c>
+      <c r="J103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="L103" s="2">
+      <c r="L103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="M103" s="2">
+      <c r="M103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="N103" s="2">
+      <c r="N103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="O103" s="2">
+      <c r="O103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="P103" s="2">
+      <c r="P103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="Q103" s="2">
+      <c r="Q103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="R103" s="2">
+      <c r="R103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="S103" s="2">
+      <c r="S103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="T103" s="2">
+      <c r="T103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="U103" s="2">
+      <c r="U103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="V103" s="2">
+      <c r="V103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="W103" s="2">
+      <c r="W103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="X103" s="2">
+      <c r="X103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="Y103" s="2">
+      <c r="Y103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="Z103" s="2">
+      <c r="Z103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AA103" s="2">
+      <c r="AA103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AB103" s="2">
+      <c r="AB103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AC103" s="2">
+      <c r="AC103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AD103" s="2">
+      <c r="AD103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AE103" s="2">
+      <c r="AE103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AF103" s="2">
+      <c r="AF103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AG103" s="2">
+      <c r="AG103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AH103" s="2">
+      <c r="AH103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AI103" s="2">
+      <c r="AI103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AJ103" s="2">
+      <c r="AJ103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AK103" s="2">
+      <c r="AK103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AL103" s="2">
+      <c r="AL103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AM103" s="2">
+      <c r="AM103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AN103" s="2">
+      <c r="AN103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AO103" s="2">
+      <c r="AO103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AP103" s="2">
+      <c r="AP103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AQ103" s="2">
+      <c r="AQ103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AR103" s="2">
+      <c r="AR103">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="AS103" s="2">
+      <c r="AS103">
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="104" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H104">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J104">
         <v>5.6947487651181003E-2</v>
@@ -13847,16 +13813,16 @@
     </row>
     <row r="105" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="H105">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>0.10992772880223101</v>
@@ -13969,16 +13935,16 @@
     </row>
     <row r="106" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="H106">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J106">
         <v>4.6761620588165603E-2</v>
@@ -14091,16 +14057,16 @@
     </row>
     <row r="107" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H107">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>4.0684381814701499E-2</v>
@@ -14213,16 +14179,16 @@
     </row>
     <row r="108" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="H108">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J108">
         <v>2.40312533986499E-2</v>
@@ -14335,16 +14301,16 @@
     </row>
     <row r="109" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="H109">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J109">
         <v>4.6135174793806397E-2</v>
@@ -14456,11 +14422,11 @@
       </c>
     </row>
     <row r="110" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>200</v>
+      <c r="A110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" t="s">
+        <v>154</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -14579,16 +14545,16 @@
     </row>
     <row r="111" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="H111">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J111">
         <v>0.10516377160535401</v>
@@ -14701,16 +14667,16 @@
     </row>
     <row r="112" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="H112">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>5.5121623013395203E-2</v>
@@ -14823,16 +14789,16 @@
     </row>
     <row r="113" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J113">
         <v>0.01</v>
@@ -14945,16 +14911,16 @@
     </row>
     <row r="114" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H114">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J114">
         <v>0.01</v>
@@ -15067,16 +15033,16 @@
     </row>
     <row r="115" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H115">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>0.01</v>
@@ -15189,16 +15155,16 @@
     </row>
     <row r="116" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>0.01</v>
@@ -15311,16 +15277,16 @@
     </row>
     <row r="117" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="H117">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J117">
         <v>1.33281107617239E-2</v>
@@ -15433,16 +15399,16 @@
     </row>
     <row r="118" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="H118">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>1.4462371521999501E-2</v>
@@ -15555,10 +15521,10 @@
     </row>
     <row r="119" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -15677,16 +15643,16 @@
     </row>
     <row r="120" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H120">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -15799,16 +15765,16 @@
     </row>
     <row r="121" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="H121">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="J121">
         <v>0.95</v>
@@ -15921,10 +15887,10 @@
     </row>
     <row r="122" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -16043,10 +16009,10 @@
     </row>
     <row r="123" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -16165,10 +16131,10 @@
     </row>
     <row r="124" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -16287,10 +16253,10 @@
     </row>
     <row r="125" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -16409,10 +16375,10 @@
     </row>
     <row r="126" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -16531,10 +16497,10 @@
     </row>
     <row r="127" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -16653,10 +16619,10 @@
     </row>
     <row r="128" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -16775,10 +16741,10 @@
     </row>
     <row r="129" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -16897,10 +16863,10 @@
     </row>
     <row r="130" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -17019,10 +16985,10 @@
     </row>
     <row r="131" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -17141,10 +17107,10 @@
     </row>
     <row r="132" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -17263,10 +17229,10 @@
     </row>
     <row r="133" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -17385,16 +17351,16 @@
     </row>
     <row r="134" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H134">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J134">
         <v>0.8</v>
@@ -17507,16 +17473,16 @@
     </row>
     <row r="135" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H135">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>1.333</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>0.6</v>
@@ -17629,16 +17595,16 @@
     </row>
     <row r="136" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H136">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J136">
         <v>0.9</v>
@@ -17751,16 +17717,16 @@
     </row>
     <row r="137" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H137">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>1.333</v>
+        <v>1</v>
       </c>
       <c r="J137">
         <v>0.45</v>
@@ -17873,16 +17839,16 @@
     </row>
     <row r="138" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B138" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="H138">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J138">
         <v>500</v>
@@ -17995,10 +17961,10 @@
     </row>
     <row r="139" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B139" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -18117,10 +18083,10 @@
     </row>
     <row r="140" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B140" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -18239,10 +18205,10 @@
     </row>
     <row r="141" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B141" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -18361,10 +18327,10 @@
     </row>
     <row r="142" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B142" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -18483,10 +18449,10 @@
     </row>
     <row r="143" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B143" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -18605,10 +18571,10 @@
     </row>
     <row r="144" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B144" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -18726,11 +18692,11 @@
       </c>
     </row>
     <row r="145" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>202</v>
+      <c r="A145" t="s">
+        <v>45</v>
+      </c>
+      <c r="B145" t="s">
+        <v>189</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -18849,10 +18815,10 @@
     </row>
     <row r="146" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B146" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -18971,10 +18937,10 @@
     </row>
     <row r="147" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B147" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -19093,10 +19059,10 @@
     </row>
     <row r="148" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B148" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -19215,10 +19181,10 @@
     </row>
     <row r="149" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -19337,10 +19303,10 @@
     </row>
     <row r="150" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B150" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -19459,10 +19425,10 @@
     </row>
     <row r="151" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -19581,10 +19547,10 @@
     </row>
     <row r="152" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B152" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -19703,10 +19669,10 @@
     </row>
     <row r="153" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -19825,10 +19791,10 @@
     </row>
     <row r="154" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B154" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -19947,10 +19913,10 @@
     </row>
     <row r="155" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B155" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -20069,10 +20035,10 @@
     </row>
     <row r="156" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B156" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -20191,16 +20157,16 @@
     </row>
     <row r="157" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B157" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="H157">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J157">
         <v>0.9</v>
@@ -20313,16 +20279,16 @@
     </row>
     <row r="158" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="H158">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J158">
         <v>1.2</v>
@@ -20435,16 +20401,16 @@
     </row>
     <row r="159" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="H159">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J159">
         <v>0.01</v>
@@ -20557,16 +20523,16 @@
     </row>
     <row r="160" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B160" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="H160">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -20679,16 +20645,16 @@
     </row>
     <row r="161" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B161" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="H161">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -20801,16 +20767,16 @@
     </row>
     <row r="162" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B162" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="H162">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -20923,16 +20889,16 @@
     </row>
     <row r="163" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B163" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="H163">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J163">
         <v>0.6</v>
@@ -21045,16 +21011,16 @@
     </row>
     <row r="164" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B164" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="H164">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>6</v>
@@ -21167,16 +21133,16 @@
     </row>
     <row r="165" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B165" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="H165">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -21289,16 +21255,16 @@
     </row>
     <row r="166" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B166" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="H166">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -21411,16 +21377,16 @@
     </row>
     <row r="167" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B167" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="H167">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -21533,16 +21499,16 @@
     </row>
     <row r="168" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B168" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="H168">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -21655,16 +21621,16 @@
     </row>
     <row r="169" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B169" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="H169">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J169">
         <v>0.1</v>
@@ -21777,16 +21743,16 @@
     </row>
     <row r="170" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B170" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="H170">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -21899,16 +21865,16 @@
     </row>
     <row r="171" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B171" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="H171">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J171">
         <v>4</v>
@@ -22021,10 +21987,10 @@
     </row>
     <row r="172" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B172" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -22143,10 +22109,10 @@
     </row>
     <row r="173" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B173" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -22265,10 +22231,10 @@
     </row>
     <row r="174" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B174" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -22387,10 +22353,10 @@
     </row>
     <row r="175" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -22509,16 +22475,16 @@
     </row>
     <row r="176" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B176" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="H176">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -22631,16 +22597,16 @@
     </row>
     <row r="177" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B177" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="H177">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J177">
         <v>4.5</v>
@@ -22753,16 +22719,16 @@
     </row>
     <row r="178" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B178" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="H178">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J178">
         <v>25</v>
@@ -22875,16 +22841,16 @@
     </row>
     <row r="179" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B179" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="H179">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J179">
         <v>2</v>
@@ -22997,16 +22963,16 @@
     </row>
     <row r="180" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B180" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="H180">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -23119,16 +23085,16 @@
     </row>
     <row r="181" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B181" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="H181">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J181">
         <v>4</v>
@@ -23241,16 +23207,16 @@
     </row>
     <row r="182" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B182" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="H182">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J182">
         <v>25</v>
@@ -23363,16 +23329,16 @@
     </row>
     <row r="183" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B183" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="H183">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J183">
         <v>5</v>
@@ -23485,16 +23451,16 @@
     </row>
     <row r="184" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B184" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="H184">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J184">
         <v>19</v>
@@ -23607,16 +23573,16 @@
     </row>
     <row r="185" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B185" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="H185">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J185">
         <v>25</v>
@@ -23729,16 +23695,16 @@
     </row>
     <row r="186" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B186" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="H186">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J186">
         <v>2</v>
@@ -23851,16 +23817,16 @@
     </row>
     <row r="187" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B187" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="H187">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J187">
         <v>3.4</v>
@@ -23973,16 +23939,16 @@
     </row>
     <row r="188" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B188" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="H188">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J188">
         <v>3</v>
@@ -24095,16 +24061,16 @@
     </row>
     <row r="189" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B189" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="H189">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J189">
         <v>4</v>
@@ -24217,16 +24183,16 @@
     </row>
     <row r="190" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B190" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="H190">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J190">
         <v>16</v>
@@ -24339,16 +24305,16 @@
     </row>
     <row r="191" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B191" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="H191">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J191">
         <v>16</v>
@@ -24461,16 +24427,16 @@
     </row>
     <row r="192" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B192" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="H192">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J192">
         <v>25</v>
@@ -24583,16 +24549,16 @@
     </row>
     <row r="193" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B193" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="H193">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J193">
         <v>25</v>
@@ -24705,10 +24671,10 @@
     </row>
     <row r="194" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B194" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -24826,169 +24792,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS194">
-    <sortCondition ref="A2:A194"/>
-    <sortCondition ref="B2:B194"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="4" width="2.33203125" customWidth="1"/>
-    <col min="5" max="7" width="3.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>